--- a/ConsoleApp/sort_duration.xlsx
+++ b/ConsoleApp/sort_duration.xlsx
@@ -13,22 +13,64 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">list.Sort</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array.Sort</t>
   </si>
   <si>
     <t xml:space="preserve">Heap Sort</t>
   </si>
   <si>
     <t xml:space="preserve">Merge Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top-down Merge Sort</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Sort</t>
@@ -38,10 +80,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -63,6 +106,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -73,20 +128,39 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,9 +189,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -133,7 +235,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFE007F"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -154,7 +256,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF007FFE"/>
-      <rgbColor rgb="FFE0E0E0"/>
+      <rgbColor rgb="FFD0D0D0"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -164,13 +266,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFE8E8E8"/>
       <rgbColor rgb="FFE6E6E6"/>
-      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFE0E0E0"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF7FFE00"/>
@@ -192,7 +294,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -212,7 +314,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Sorting Duration</a:t>
+              <a:t>Sorting Duration
+Sorting of Arrays</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -235,11 +338,387 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>sort_duration!$A$1</c:f>
+              <c:f>sort_duration!$A$4:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>list.Sort</c:v>
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="fe7f00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="fe7f00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>sort_duration!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort_duration!$A$5:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7ffe00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7ffe00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>sort_duration!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort_duration!$A$6:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top-down Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="fe007f"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="fe007f"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>sort_duration!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort_duration!$A$7:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="007ffe"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="007ffe"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>sort_duration!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sort_duration!$A$3:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Array.Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -285,321 +764,39 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>sort_duration!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.655</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.655</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.652</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.655</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.654</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.656</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sort_duration!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heap Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="fe7f00"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="fe7f00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>sort_duration!$B$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6.032</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.924</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.936</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.922</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.897</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sort_duration!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7ffe00"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="7ffe00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
               <c:f>sort_duration!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.721</c:v>
+                  <c:v>0.653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.691</c:v>
+                  <c:v>0.641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.727</c:v>
+                  <c:v>0.646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.716</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.722</c:v>
+                  <c:v>0.647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.727</c:v>
+                  <c:v>0.647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.737</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.745</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.731</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>sort_duration!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="007ffe"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="007ffe"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>sort_duration!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.917</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.911</c:v>
+                  <c:v>0.646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,11 +811,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="40747793"/>
-        <c:axId val="96988648"/>
+        <c:axId val="37078694"/>
+        <c:axId val="45961778"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40747793"/>
+        <c:axId val="37078694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96988648"/>
+        <c:crossAx val="45961778"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -682,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96988648"/>
+        <c:axId val="45961778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40747793"/>
+        <c:crossAx val="37078694"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,11 +953,10 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:ln w="36000">
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -813,16 +1009,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>391680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -830,7 +1026,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5301000" y="1499040"/>
+        <a:off x="196920" y="1288800"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -849,165 +1045,278 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>0.651</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>6.032</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5.924</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>5.964</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>5.922</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>5.925</v>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2.721</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.691</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2.727</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.716</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2.722</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2.727</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2.737</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>2.745</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2.731</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2.772</v>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">SUM(B3:K3)/10</f>
+        <v>0.6465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.926</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.921</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1.911</v>
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>4.592</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>4.607</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>4.615</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>4.569</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.447</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>4.488</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>4.482</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM(B4:K4)/10</f>
+        <v>4.5695</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM(B5:K5)/10</f>
+        <v>2.4163</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM(B6:K6)/10</f>
+        <v>1.9503</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.282</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM(B7:K7)/10</f>
+        <v>1.286</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.7875" bottom="1.025" header="0.511805555555555" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
